--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY DOCUMENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY DOCUMENTS\Project Gladiator\NetBanking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC37F8-7968-432F-8F19-74AC4B45A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E5014B-252F-472B-A2F7-73C62C906F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FFDEE4D7-DEB4-46A5-A4CD-B1D5B338730A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Data Access Layer</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>Card Number,ExpiryDate&amp;CVV</t>
+  </si>
+  <si>
+    <t>Transaction Details</t>
+  </si>
+  <si>
+    <t>To Get all transaction details</t>
+  </si>
+  <si>
+    <t>To get all transaction details from the database by using Account number</t>
+  </si>
+  <si>
+    <t>Account number of the account</t>
+  </si>
+  <si>
+    <t>Boolean value</t>
   </si>
 </sst>
 </file>
@@ -201,14 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,12 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -238,14 +244,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F87C736-49F4-4DDF-85FE-79AB83BEF28E}">
-  <dimension ref="A3:H17"/>
+  <dimension ref="A3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,41 +599,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -620,36 +641,36 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -660,122 +681,146 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
@@ -789,12 +834,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
